--- a/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND7/cond7_loc7_processed.xlsx
+++ b/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND7/cond7_loc7_processed.xlsx
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1170554477611939</v>
+        <v>117.0554477611939</v>
       </c>
     </row>
   </sheetData>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07042253521126761</v>
+        <v>7.042253521126761</v>
       </c>
     </row>
   </sheetData>
